--- a/recipeDB.xlsx
+++ b/recipeDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47802"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>recipe</t>
   </si>
@@ -849,6 +849,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>구황작물</t>
+  </si>
+  <si>
+    <t>쌀/밀</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,6 +2011,15 @@
     </xf>
     <xf numFmtId="68" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="68" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="68" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="68" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2324,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2738,9 +2753,6 @@
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
       <c r="D14" s="70"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
       <c r="J14" s="70"/>
@@ -3340,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="J28" s="71" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="K28" s="77">
         <v>3</v>
@@ -3355,34 +3367,34 @@
       <c r="S28" s="70"/>
       <c r="T28" s="70"/>
     </row>
-    <row r="29" spans="1:20" ht="17.250000">
-      <c r="A29" s="106">
+    <row r="29" spans="1:20">
+      <c r="A29" s="102">
         <v>13</v>
       </c>
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="108">
+      <c r="C29" s="77">
         <v>1</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="107">
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="71">
         <v>13</v>
       </c>
-      <c r="J29" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="K29" s="108">
+      <c r="J29" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="77">
         <v>3</v>
       </c>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="110"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="105"/>
       <c r="P29" s="70"/>
       <c r="Q29" s="70"/>
       <c r="R29" s="70"/>
@@ -3390,45 +3402,55 @@
       <c r="T29" s="70"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="71">
+        <v>14</v>
+      </c>
+      <c r="J30" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" s="77">
+        <v>3</v>
+      </c>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="105"/>
       <c r="P30" s="70"/>
       <c r="Q30" s="70"/>
       <c r="R30" s="70"/>
       <c r="S30" s="70"/>
       <c r="T30" s="70"/>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
+    <row r="31" spans="1:20" ht="17.250000">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="107">
+        <v>15</v>
+      </c>
+      <c r="J31" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" s="108">
+        <v>3</v>
+      </c>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="110"/>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="70"/>
@@ -3436,18 +3458,16 @@
       <c r="T31" s="70"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="16"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
       <c r="K32" s="70"/>
       <c r="L32" s="70"/>
       <c r="M32" s="70"/>
@@ -3460,28 +3480,18 @@
       <c r="T32" s="70"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="E33" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="16"/>
+      <c r="A33" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
       <c r="M33" s="70"/>
@@ -3494,28 +3504,17 @@
       <c r="T33" s="70"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="102">
-        <v>1</v>
-      </c>
-      <c r="B34" s="66">
-        <v>44799.8665046296</v>
-      </c>
-      <c r="C34" s="66">
-        <v>44799.8665046296</v>
-      </c>
-      <c r="D34" s="77">
-        <v>1</v>
-      </c>
-      <c r="E34" s="71">
-        <v>1</v>
-      </c>
-      <c r="F34" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" s="113">
-        <v>0</v>
-      </c>
-      <c r="H34" s="16"/>
+      <c r="A34" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="112"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="101"/>
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
       <c r="M34" s="70"/>
@@ -3528,28 +3527,27 @@
       <c r="T34" s="70"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="102">
-        <v>2</v>
-      </c>
-      <c r="B35" s="66">
-        <v>44799.8665046296</v>
-      </c>
-      <c r="C35" s="66">
-        <v>44799.8665046296</v>
-      </c>
-      <c r="D35" s="77">
-        <v>1</v>
-      </c>
-      <c r="E35" s="71">
-        <v>2</v>
-      </c>
-      <c r="F35" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" s="113">
-        <v>0</v>
-      </c>
-      <c r="H35" s="16"/>
+      <c r="A35" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="113" t="s">
+        <v>123</v>
+      </c>
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
       <c r="M35" s="70"/>
@@ -3563,7 +3561,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" s="66">
         <v>44799.8665046296</v>
@@ -3575,15 +3573,14 @@
         <v>1</v>
       </c>
       <c r="E36" s="71">
-        <v>3</v>
-      </c>
-      <c r="F36" s="71" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="F36" s="77" t="s">
+        <v>151</v>
       </c>
       <c r="G36" s="113">
         <v>0</v>
       </c>
-      <c r="H36" s="16"/>
       <c r="K36" s="70"/>
       <c r="L36" s="70"/>
       <c r="M36" s="70"/>
@@ -3597,7 +3594,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="66">
         <v>44799.8665046296</v>
@@ -3609,15 +3606,14 @@
         <v>1</v>
       </c>
       <c r="E37" s="71">
-        <v>4</v>
-      </c>
-      <c r="F37" s="71" t="s">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="F37" s="77" t="s">
+        <v>152</v>
       </c>
       <c r="G37" s="113">
         <v>0</v>
       </c>
-      <c r="H37" s="16"/>
       <c r="K37" s="70"/>
       <c r="L37" s="70"/>
       <c r="M37" s="70"/>
@@ -3631,7 +3627,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" s="66">
         <v>44799.8665046296</v>
@@ -3643,17 +3639,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F38" s="71" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G38" s="113">
         <v>0</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
       <c r="K38" s="70"/>
       <c r="L38" s="70"/>
       <c r="M38" s="70"/>
@@ -3667,7 +3660,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="102">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" s="66">
         <v>44799.8665046296</v>
@@ -3679,17 +3672,14 @@
         <v>1</v>
       </c>
       <c r="E39" s="71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" s="71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G39" s="113">
         <v>0</v>
       </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
       <c r="K39" s="70"/>
       <c r="L39" s="70"/>
       <c r="M39" s="70"/>
@@ -3703,7 +3693,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40" s="66">
         <v>44799.8665046296</v>
@@ -3715,10 +3705,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40" s="71" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="G40" s="113">
         <v>0</v>
@@ -3739,7 +3729,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="102">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" s="66">
         <v>44799.8665046296</v>
@@ -3751,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F41" s="71" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G41" s="113">
         <v>0</v>
@@ -3775,7 +3765,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="102">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42" s="66">
         <v>44799.8665046296</v>
@@ -3787,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42" s="71" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="G42" s="113">
         <v>0</v>
@@ -3811,7 +3801,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="102">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" s="66">
         <v>44799.8665046296</v>
@@ -3823,10 +3813,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="71">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F43" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G43" s="113">
         <v>0</v>
@@ -3847,7 +3837,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="102">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" s="66">
         <v>44799.8665046296</v>
@@ -3859,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F44" s="71" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G44" s="113">
         <v>0</v>
@@ -3883,7 +3873,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="102">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45" s="66">
         <v>44799.8665046296</v>
@@ -3895,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F45" s="71" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G45" s="113">
         <v>0</v>
@@ -3919,7 +3909,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="66">
         <v>44799.8665046296</v>
@@ -3931,10 +3921,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F46" s="71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G46" s="113">
         <v>0</v>
@@ -3955,7 +3945,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="102">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="66">
         <v>44799.8665046296</v>
@@ -3964,13 +3954,13 @@
         <v>44799.8665046296</v>
       </c>
       <c r="D47" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="71">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F47" s="71" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G47" s="113">
         <v>0</v>
@@ -3991,7 +3981,7 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="102">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B48" s="66">
         <v>44799.8665046296</v>
@@ -4000,13 +3990,13 @@
         <v>44799.8665046296</v>
       </c>
       <c r="D48" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="71">
-        <v>2</v>
-      </c>
-      <c r="F48" s="77" t="s">
-        <v>182</v>
+        <v>13</v>
+      </c>
+      <c r="F48" s="71" t="s">
+        <v>162</v>
       </c>
       <c r="G48" s="113">
         <v>0</v>
@@ -4027,7 +4017,7 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="102">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="66">
         <v>44799.8665046296</v>
@@ -4039,10 +4029,10 @@
         <v>2</v>
       </c>
       <c r="E49" s="71">
-        <v>3</v>
-      </c>
-      <c r="F49" s="77" t="s">
-        <v>176</v>
+        <v>1</v>
+      </c>
+      <c r="F49" s="71" t="s">
+        <v>183</v>
       </c>
       <c r="G49" s="113">
         <v>0</v>
@@ -4063,7 +4053,7 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="102">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B50" s="66">
         <v>44799.8665046296</v>
@@ -4075,10 +4065,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="71">
-        <v>4</v>
-      </c>
-      <c r="F50" s="71" t="s">
-        <v>177</v>
+        <v>2</v>
+      </c>
+      <c r="F50" s="77" t="s">
+        <v>182</v>
       </c>
       <c r="G50" s="113">
         <v>0</v>
@@ -4099,7 +4089,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="102">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B51" s="66">
         <v>44799.8665046296</v>
@@ -4111,10 +4101,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="71">
-        <v>5</v>
-      </c>
-      <c r="F51" s="71" t="s">
-        <v>179</v>
+        <v>3</v>
+      </c>
+      <c r="F51" s="77" t="s">
+        <v>176</v>
       </c>
       <c r="G51" s="113">
         <v>0</v>
@@ -4135,7 +4125,7 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="102">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" s="66">
         <v>44799.8665046296</v>
@@ -4147,10 +4137,10 @@
         <v>2</v>
       </c>
       <c r="E52" s="71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F52" s="71" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G52" s="113">
         <v>0</v>
@@ -4171,7 +4161,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="102">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" s="66">
         <v>44799.8665046296</v>
@@ -4183,10 +4173,10 @@
         <v>2</v>
       </c>
       <c r="E53" s="71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53" s="71" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G53" s="113">
         <v>0</v>
@@ -4207,7 +4197,7 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="102">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" s="66">
         <v>44799.8665046296</v>
@@ -4219,10 +4209,10 @@
         <v>2</v>
       </c>
       <c r="E54" s="71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" s="71" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G54" s="113">
         <v>0</v>
@@ -4243,7 +4233,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="102">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B55" s="66">
         <v>44799.8665046296</v>
@@ -4255,10 +4245,10 @@
         <v>2</v>
       </c>
       <c r="E55" s="71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F55" s="71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G55" s="113">
         <v>0</v>
@@ -4279,7 +4269,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="102">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B56" s="66">
         <v>44799.8665046296</v>
@@ -4291,10 +4281,10 @@
         <v>2</v>
       </c>
       <c r="E56" s="71">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G56" s="113">
         <v>0</v>
@@ -4302,10 +4292,20 @@
       <c r="H56" s="70"/>
       <c r="I56" s="70"/>
       <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="70"/>
+      <c r="T56" s="70"/>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="102">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B57" s="66">
         <v>44799.8665046296</v>
@@ -4314,13 +4314,13 @@
         <v>44799.8665046296</v>
       </c>
       <c r="D57" s="77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="71">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F57" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G57" s="113">
         <v>0</v>
@@ -4328,10 +4328,20 @@
       <c r="H57" s="70"/>
       <c r="I57" s="70"/>
       <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="102">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B58" s="66">
         <v>44799.8665046296</v>
@@ -4340,13 +4350,13 @@
         <v>44799.8665046296</v>
       </c>
       <c r="D58" s="77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" s="71">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F58" s="71" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="G58" s="113">
         <v>0</v>
@@ -4357,7 +4367,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="102">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B59" s="66">
         <v>44799.8665046296</v>
@@ -4369,10 +4379,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="71">
-        <v>3</v>
-      </c>
-      <c r="F59" s="77" t="s">
-        <v>189</v>
+        <v>1</v>
+      </c>
+      <c r="F59" s="71" t="s">
+        <v>187</v>
       </c>
       <c r="G59" s="113">
         <v>0</v>
@@ -4383,7 +4393,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="102">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" s="66">
         <v>44799.8665046296</v>
@@ -4395,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="71">
-        <v>4</v>
-      </c>
-      <c r="F60" s="77" t="s">
-        <v>193</v>
+        <v>2</v>
+      </c>
+      <c r="F60" s="71" t="s">
+        <v>188</v>
       </c>
       <c r="G60" s="113">
         <v>0</v>
@@ -4409,7 +4419,7 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="102">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B61" s="66">
         <v>44799.8665046296</v>
@@ -4421,10 +4431,10 @@
         <v>3</v>
       </c>
       <c r="E61" s="71">
-        <v>5</v>
-      </c>
-      <c r="F61" s="71" t="s">
-        <v>191</v>
+        <v>3</v>
+      </c>
+      <c r="F61" s="77" t="s">
+        <v>189</v>
       </c>
       <c r="G61" s="113">
         <v>0</v>
@@ -4435,7 +4445,7 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="102">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62" s="66">
         <v>44799.8665046296</v>
@@ -4447,10 +4457,10 @@
         <v>3</v>
       </c>
       <c r="E62" s="71">
-        <v>6</v>
-      </c>
-      <c r="F62" s="71" t="s">
-        <v>195</v>
+        <v>4</v>
+      </c>
+      <c r="F62" s="77" t="s">
+        <v>193</v>
       </c>
       <c r="G62" s="113">
         <v>0</v>
@@ -4461,7 +4471,7 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="102">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B63" s="66">
         <v>44799.8665046296</v>
@@ -4473,10 +4483,10 @@
         <v>3</v>
       </c>
       <c r="E63" s="71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F63" s="71" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G63" s="113">
         <v>0</v>
@@ -4487,7 +4497,7 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="102">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" s="66">
         <v>44799.8665046296</v>
@@ -4499,10 +4509,10 @@
         <v>3</v>
       </c>
       <c r="E64" s="71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F64" s="71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G64" s="113">
         <v>0</v>
@@ -4511,9 +4521,9 @@
       <c r="I64" s="70"/>
       <c r="J64" s="70"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:10">
       <c r="A65" s="102">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B65" s="66">
         <v>44799.8665046296</v>
@@ -4525,10 +4535,10 @@
         <v>3</v>
       </c>
       <c r="E65" s="71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F65" s="71" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G65" s="113">
         <v>0</v>
@@ -4537,9 +4547,9 @@
       <c r="I65" s="70"/>
       <c r="J65" s="70"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:10">
       <c r="A66" s="102">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B66" s="66">
         <v>44799.8665046296</v>
@@ -4551,10 +4561,10 @@
         <v>3</v>
       </c>
       <c r="E66" s="71">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F66" s="71" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G66" s="113">
         <v>0</v>
@@ -4563,9 +4573,9 @@
       <c r="I66" s="70"/>
       <c r="J66" s="70"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:10">
       <c r="A67" s="102">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B67" s="66">
         <v>44799.8665046296</v>
@@ -4577,10 +4587,10 @@
         <v>3</v>
       </c>
       <c r="E67" s="71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F67" s="71" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G67" s="113">
         <v>0</v>
@@ -4589,9 +4599,9 @@
       <c r="I67" s="70"/>
       <c r="J67" s="70"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:10">
       <c r="A68" s="102">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B68" s="66">
         <v>44799.8665046296</v>
@@ -4603,10 +4613,10 @@
         <v>3</v>
       </c>
       <c r="E68" s="71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F68" s="71" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G68" s="113">
         <v>0</v>
@@ -4615,9 +4625,9 @@
       <c r="I68" s="70"/>
       <c r="J68" s="70"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:10">
       <c r="A69" s="102">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B69" s="66">
         <v>44799.8665046296</v>
@@ -4629,10 +4639,10 @@
         <v>3</v>
       </c>
       <c r="E69" s="71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F69" s="71" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G69" s="113">
         <v>0</v>
@@ -4641,9 +4651,9 @@
       <c r="I69" s="70"/>
       <c r="J69" s="70"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:10">
       <c r="A70" s="102">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B70" s="66">
         <v>44799.8665046296</v>
@@ -4652,13 +4662,13 @@
         <v>44799.8665046296</v>
       </c>
       <c r="D70" s="77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70" s="71">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F70" s="71" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="G70" s="113">
         <v>0</v>
@@ -4667,9 +4677,9 @@
       <c r="I70" s="70"/>
       <c r="J70" s="70"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:10">
       <c r="A71" s="102">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B71" s="66">
         <v>44799.8665046296</v>
@@ -4678,13 +4688,13 @@
         <v>44799.8665046296</v>
       </c>
       <c r="D71" s="77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" s="71">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F71" s="71" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="G71" s="113">
         <v>0</v>
@@ -4693,9 +4703,9 @@
       <c r="I71" s="70"/>
       <c r="J71" s="70"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:10">
       <c r="A72" s="102">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B72" s="66">
         <v>44799.8665046296</v>
@@ -4707,10 +4717,10 @@
         <v>4</v>
       </c>
       <c r="E72" s="71">
-        <v>3</v>
-      </c>
-      <c r="F72" s="77" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="F72" s="71" t="s">
+        <v>168</v>
       </c>
       <c r="G72" s="113">
         <v>0</v>
@@ -4719,9 +4729,9 @@
       <c r="I72" s="70"/>
       <c r="J72" s="70"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:10">
       <c r="A73" s="102">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B73" s="66">
         <v>44799.8665046296</v>
@@ -4733,10 +4743,10 @@
         <v>4</v>
       </c>
       <c r="E73" s="71">
-        <v>4</v>
-      </c>
-      <c r="F73" s="77" t="s">
-        <v>170</v>
+        <v>2</v>
+      </c>
+      <c r="F73" s="71" t="s">
+        <v>173</v>
       </c>
       <c r="G73" s="113">
         <v>0</v>
@@ -4745,9 +4755,9 @@
       <c r="I73" s="70"/>
       <c r="J73" s="70"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:10">
       <c r="A74" s="102">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B74" s="66">
         <v>44799.8665046296</v>
@@ -4759,10 +4769,10 @@
         <v>4</v>
       </c>
       <c r="E74" s="71">
-        <v>5</v>
-      </c>
-      <c r="F74" s="71" t="s">
-        <v>171</v>
+        <v>3</v>
+      </c>
+      <c r="F74" s="77" t="s">
+        <v>169</v>
       </c>
       <c r="G74" s="113">
         <v>0</v>
@@ -4771,9 +4781,9 @@
       <c r="I74" s="70"/>
       <c r="J74" s="70"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:10">
       <c r="A75" s="102">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B75" s="66">
         <v>44799.8665046296</v>
@@ -4785,10 +4795,10 @@
         <v>4</v>
       </c>
       <c r="E75" s="71">
-        <v>6</v>
-      </c>
-      <c r="F75" s="71" t="s">
-        <v>172</v>
+        <v>4</v>
+      </c>
+      <c r="F75" s="77" t="s">
+        <v>170</v>
       </c>
       <c r="G75" s="113">
         <v>0</v>
@@ -4797,9 +4807,9 @@
       <c r="I75" s="70"/>
       <c r="J75" s="70"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:10">
       <c r="A76" s="102">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B76" s="66">
         <v>44799.8665046296</v>
@@ -4811,10 +4821,10 @@
         <v>4</v>
       </c>
       <c r="E76" s="71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F76" s="71" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G76" s="113">
         <v>0</v>
@@ -4823,147 +4833,121 @@
       <c r="I76" s="70"/>
       <c r="J76" s="70"/>
     </row>
-    <row r="77" spans="1:20" ht="17.250000">
-      <c r="A77" s="106">
-        <v>44</v>
-      </c>
-      <c r="B77" s="114">
-        <v>44799.8665046296</v>
-      </c>
-      <c r="C77" s="114">
-        <v>44799.8665046296</v>
-      </c>
-      <c r="D77" s="108">
+    <row r="77" spans="1:10">
+      <c r="A77" s="102">
+        <v>42</v>
+      </c>
+      <c r="B77" s="66">
+        <v>44799.8665046296</v>
+      </c>
+      <c r="C77" s="66">
+        <v>44799.8665046296</v>
+      </c>
+      <c r="D77" s="77">
         <v>4</v>
       </c>
-      <c r="E77" s="107">
-        <v>8</v>
-      </c>
-      <c r="F77" s="107" t="s">
-        <v>163</v>
-      </c>
-      <c r="G77" s="115">
+      <c r="E77" s="71">
+        <v>6</v>
+      </c>
+      <c r="F77" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="113">
         <v>0</v>
       </c>
       <c r="H77" s="70"/>
       <c r="I77" s="70"/>
       <c r="J77" s="70"/>
     </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="70"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
+    <row r="78" spans="1:10">
+      <c r="A78" s="102">
+        <v>43</v>
+      </c>
+      <c r="B78" s="66">
+        <v>44799.8665046296</v>
+      </c>
+      <c r="C78" s="66">
+        <v>44799.8665046296</v>
+      </c>
+      <c r="D78" s="77">
+        <v>4</v>
+      </c>
+      <c r="E78" s="71">
+        <v>7</v>
+      </c>
+      <c r="F78" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="G78" s="113">
+        <v>0</v>
+      </c>
       <c r="H78" s="70"/>
       <c r="I78" s="70"/>
       <c r="J78" s="70"/>
     </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="87" t="s">
-        <v>226</v>
-      </c>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="F79" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="G79" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="H79" s="70" t="s">
-        <v>232</v>
-      </c>
+    <row r="79" spans="1:10" ht="17.250000">
+      <c r="A79" s="106">
+        <v>44</v>
+      </c>
+      <c r="B79" s="114">
+        <v>44799.8665046296</v>
+      </c>
+      <c r="C79" s="114">
+        <v>44799.8665046296</v>
+      </c>
+      <c r="D79" s="108">
+        <v>4</v>
+      </c>
+      <c r="E79" s="107">
+        <v>8</v>
+      </c>
+      <c r="F79" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="G79" s="115">
+        <v>0</v>
+      </c>
+      <c r="H79" s="70"/>
       <c r="I79" s="70"/>
       <c r="J79" s="70"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="70"/>
-      <c r="O79" s="70"/>
-      <c r="P79" s="70"/>
-      <c r="Q79" s="70"/>
-      <c r="R79" s="70"/>
-      <c r="S79" s="70"/>
-      <c r="T79" s="70"/>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="A80" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="88" t="s">
-        <v>238</v>
-      </c>
-      <c r="E80" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="F80" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="G80" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="H80" s="76" t="s">
-        <v>212</v>
-      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="70"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
       <c r="I80" s="70"/>
-      <c r="J80" s="93" t="s">
-        <v>257</v>
-      </c>
-      <c r="K80" s="72"/>
-      <c r="L80" s="72"/>
-      <c r="M80" s="72"/>
-      <c r="O80" s="70"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="70"/>
-      <c r="S80" s="70"/>
-      <c r="T80" s="70"/>
+      <c r="J80" s="70"/>
     </row>
     <row r="81" spans="1:20">
-      <c r="A81" s="71">
-        <v>1</v>
-      </c>
-      <c r="B81" s="66">
-        <v>44593</v>
-      </c>
-      <c r="C81" s="66">
-        <v>44594</v>
-      </c>
-      <c r="D81" s="71">
-        <v>14</v>
-      </c>
-      <c r="E81" s="71">
-        <v>9</v>
-      </c>
-      <c r="F81" s="71">
-        <v>4</v>
-      </c>
-      <c r="G81" s="71">
-        <v>9</v>
-      </c>
-      <c r="H81" s="71">
-        <v>3</v>
+      <c r="A81" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="G81" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="H81" s="70" t="s">
+        <v>232</v>
       </c>
       <c r="I81" s="70"/>
-      <c r="J81" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="K81" s="72"/>
-      <c r="L81" s="72"/>
-      <c r="M81" s="72"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="70"/>
+      <c r="L81" s="70"/>
+      <c r="M81" s="70"/>
+      <c r="N81" s="70"/>
       <c r="O81" s="70"/>
       <c r="P81" s="70"/>
       <c r="Q81" s="70"/>
@@ -4972,37 +4956,37 @@
       <c r="T81" s="70"/>
     </row>
     <row r="82" spans="1:20">
-      <c r="A82" s="71">
-        <v>2</v>
-      </c>
-      <c r="B82" s="66">
-        <v>44594</v>
-      </c>
-      <c r="C82" s="66">
-        <v>44595</v>
-      </c>
-      <c r="D82" s="71">
-        <v>9</v>
-      </c>
-      <c r="E82" s="71">
-        <v>8</v>
-      </c>
-      <c r="F82" s="71">
-        <v>3</v>
-      </c>
-      <c r="G82" s="71">
-        <v>13</v>
-      </c>
-      <c r="H82" s="71">
-        <v>9</v>
+      <c r="A82" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="E82" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F82" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="G82" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="H82" s="76" t="s">
+        <v>212</v>
       </c>
       <c r="I82" s="70"/>
-      <c r="J82" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
+      <c r="J82" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="72"/>
       <c r="O82" s="70"/>
       <c r="P82" s="70"/>
       <c r="Q82" s="70"/>
@@ -5012,42 +4996,36 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="71">
+        <v>1</v>
+      </c>
+      <c r="B83" s="66">
+        <v>44593</v>
+      </c>
+      <c r="C83" s="66">
+        <v>44594</v>
+      </c>
+      <c r="D83" s="71">
+        <v>14</v>
+      </c>
+      <c r="E83" s="71">
+        <v>9</v>
+      </c>
+      <c r="F83" s="71">
+        <v>4</v>
+      </c>
+      <c r="G83" s="71">
+        <v>9</v>
+      </c>
+      <c r="H83" s="71">
         <v>3</v>
       </c>
-      <c r="B83" s="66">
-        <v>44595</v>
-      </c>
-      <c r="C83" s="66">
-        <v>44596</v>
-      </c>
-      <c r="D83" s="71">
-        <v>1</v>
-      </c>
-      <c r="E83" s="71">
-        <v>5</v>
-      </c>
-      <c r="F83" s="71">
-        <v>10</v>
-      </c>
-      <c r="G83" s="71">
-        <v>4</v>
-      </c>
-      <c r="H83" s="71">
-        <v>8</v>
-      </c>
       <c r="I83" s="70"/>
-      <c r="J83" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="K83" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="L83" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="M83" s="72">
-        <v>1</v>
-      </c>
+      <c r="J83" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
       <c r="O83" s="70"/>
       <c r="P83" s="70"/>
       <c r="Q83" s="70"/>
@@ -5057,42 +5035,36 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" s="66">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="C84" s="66">
-        <v>44597</v>
+        <v>44595</v>
       </c>
       <c r="D84" s="71">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E84" s="71">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F84" s="71">
         <v>3</v>
       </c>
       <c r="G84" s="71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H84" s="71">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I84" s="70"/>
-      <c r="J84" s="72" t="s">
-        <v>265</v>
-      </c>
-      <c r="K84" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="L84" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="M84" s="72">
-        <v>2</v>
-      </c>
+      <c r="J84" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
       <c r="O84" s="70"/>
       <c r="P84" s="70"/>
       <c r="Q84" s="70"/>
@@ -5102,41 +5074,41 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="71">
+        <v>3</v>
+      </c>
+      <c r="B85" s="66">
+        <v>44595</v>
+      </c>
+      <c r="C85" s="66">
+        <v>44596</v>
+      </c>
+      <c r="D85" s="71">
+        <v>1</v>
+      </c>
+      <c r="E85" s="71">
         <v>5</v>
       </c>
-      <c r="B85" s="66">
-        <v>44597</v>
-      </c>
-      <c r="C85" s="66">
-        <v>44598</v>
-      </c>
-      <c r="D85" s="71">
-        <v>12</v>
-      </c>
-      <c r="E85" s="71">
-        <v>13</v>
-      </c>
       <c r="F85" s="71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G85" s="71">
+        <v>4</v>
+      </c>
+      <c r="H85" s="71">
         <v>8</v>
-      </c>
-      <c r="H85" s="71">
-        <v>2</v>
       </c>
       <c r="I85" s="70"/>
       <c r="J85" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="K85" s="75" t="s">
-        <v>230</v>
+        <v>264</v>
+      </c>
+      <c r="K85" s="73" t="s">
+        <v>209</v>
       </c>
       <c r="L85" s="86" t="s">
         <v>237</v>
       </c>
       <c r="M85" s="72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85" s="70"/>
       <c r="P85" s="70"/>
@@ -5147,43 +5119,42 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B86" s="66">
-        <v>44598</v>
+        <v>44596</v>
       </c>
       <c r="C86" s="66">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="D86" s="71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E86" s="71">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F86" s="71">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G86" s="71">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H86" s="71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I86" s="70"/>
       <c r="J86" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="K86" s="76" t="s">
-        <v>212</v>
+        <v>265</v>
+      </c>
+      <c r="K86" s="74" t="s">
+        <v>210</v>
       </c>
       <c r="L86" s="86" t="s">
         <v>237</v>
       </c>
       <c r="M86" s="72">
-        <v>4</v>
-      </c>
-      <c r="N86" s="72"/>
+        <v>2</v>
+      </c>
       <c r="O86" s="70"/>
       <c r="P86" s="70"/>
       <c r="Q86" s="70"/>
@@ -5193,35 +5164,42 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="71">
+        <v>5</v>
+      </c>
+      <c r="B87" s="66">
+        <v>44597</v>
+      </c>
+      <c r="C87" s="66">
+        <v>44598</v>
+      </c>
+      <c r="D87" s="71">
+        <v>12</v>
+      </c>
+      <c r="E87" s="71">
+        <v>13</v>
+      </c>
+      <c r="F87" s="71">
         <v>7</v>
       </c>
-      <c r="B87" s="66">
-        <v>44599</v>
-      </c>
-      <c r="C87" s="66">
-        <v>44600</v>
-      </c>
-      <c r="D87" s="71">
-        <v>4</v>
-      </c>
-      <c r="E87" s="71">
+      <c r="G87" s="71">
         <v>8</v>
       </c>
-      <c r="F87" s="71">
-        <v>1</v>
-      </c>
-      <c r="G87" s="71">
-        <v>9</v>
-      </c>
       <c r="H87" s="71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I87" s="70"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="72"/>
+      <c r="J87" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="K87" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="L87" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="M87" s="72">
+        <v>3</v>
+      </c>
       <c r="O87" s="70"/>
       <c r="P87" s="70"/>
       <c r="Q87" s="70"/>
@@ -5231,34 +5209,42 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B88" s="66">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="C88" s="66">
-        <v>44601</v>
+        <v>44599</v>
       </c>
       <c r="D88" s="71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E88" s="71">
+        <v>14</v>
+      </c>
+      <c r="F88" s="71">
         <v>6</v>
       </c>
-      <c r="F88" s="71">
+      <c r="G88" s="71">
         <v>9</v>
       </c>
-      <c r="G88" s="71">
-        <v>2</v>
-      </c>
       <c r="H88" s="71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I88" s="70"/>
-      <c r="J88" s="72"/>
-      <c r="K88" s="72"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="72"/>
+      <c r="J88" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="K88" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="L88" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="M88" s="72">
+        <v>4</v>
+      </c>
       <c r="N88" s="72"/>
       <c r="O88" s="70"/>
       <c r="P88" s="70"/>
@@ -5269,28 +5255,28 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="71">
+        <v>7</v>
+      </c>
+      <c r="B89" s="66">
+        <v>44599</v>
+      </c>
+      <c r="C89" s="66">
+        <v>44600</v>
+      </c>
+      <c r="D89" s="71">
+        <v>4</v>
+      </c>
+      <c r="E89" s="71">
+        <v>8</v>
+      </c>
+      <c r="F89" s="71">
+        <v>1</v>
+      </c>
+      <c r="G89" s="71">
         <v>9</v>
       </c>
-      <c r="B89" s="66">
-        <v>44601</v>
-      </c>
-      <c r="C89" s="66">
-        <v>44602</v>
-      </c>
-      <c r="D89" s="71">
-        <v>18</v>
-      </c>
-      <c r="E89" s="71">
-        <v>2</v>
-      </c>
-      <c r="F89" s="71">
-        <v>11</v>
-      </c>
-      <c r="G89" s="71">
-        <v>6</v>
-      </c>
       <c r="H89" s="71">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I89" s="70"/>
       <c r="J89" s="72"/>
@@ -5307,30 +5293,34 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="71">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B90" s="66">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="C90" s="66">
-        <v>44603</v>
+        <v>44601</v>
       </c>
       <c r="D90" s="71">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E90" s="71">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F90" s="71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G90" s="71">
+        <v>2</v>
+      </c>
+      <c r="H90" s="71">
         <v>9</v>
       </c>
-      <c r="H90" s="71">
-        <v>8</v>
-      </c>
       <c r="I90" s="70"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="72"/>
       <c r="N90" s="72"/>
       <c r="O90" s="70"/>
       <c r="P90" s="70"/>
@@ -5341,34 +5331,34 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="71">
+        <v>9</v>
+      </c>
+      <c r="B91" s="66">
+        <v>44601</v>
+      </c>
+      <c r="C91" s="66">
+        <v>44602</v>
+      </c>
+      <c r="D91" s="71">
+        <v>18</v>
+      </c>
+      <c r="E91" s="71">
+        <v>2</v>
+      </c>
+      <c r="F91" s="71">
         <v>11</v>
       </c>
-      <c r="B91" s="66">
-        <v>44603</v>
-      </c>
-      <c r="C91" s="66">
-        <v>44604</v>
-      </c>
-      <c r="D91" s="71">
+      <c r="G91" s="71">
         <v>6</v>
       </c>
-      <c r="E91" s="71">
-        <v>6</v>
-      </c>
-      <c r="F91" s="71">
-        <v>6</v>
-      </c>
-      <c r="G91" s="71">
-        <v>8</v>
-      </c>
       <c r="H91" s="71">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I91" s="70"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="47"/>
-      <c r="L91" s="47"/>
-      <c r="M91" s="47"/>
+      <c r="J91" s="72"/>
+      <c r="K91" s="72"/>
+      <c r="L91" s="72"/>
+      <c r="M91" s="72"/>
       <c r="N91" s="72"/>
       <c r="O91" s="70"/>
       <c r="P91" s="70"/>
@@ -5379,34 +5369,30 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="71">
+        <v>10</v>
+      </c>
+      <c r="B92" s="66">
+        <v>44602</v>
+      </c>
+      <c r="C92" s="66">
+        <v>44603</v>
+      </c>
+      <c r="D92" s="71">
+        <v>8</v>
+      </c>
+      <c r="E92" s="71">
         <v>12</v>
       </c>
-      <c r="B92" s="66">
-        <v>44604</v>
-      </c>
-      <c r="C92" s="66">
-        <v>44605</v>
-      </c>
-      <c r="D92" s="71">
-        <v>3</v>
-      </c>
-      <c r="E92" s="71">
-        <v>13</v>
-      </c>
       <c r="F92" s="71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G92" s="71">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H92" s="71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I92" s="70"/>
-      <c r="J92" s="72"/>
-      <c r="K92" s="72"/>
-      <c r="L92" s="72"/>
-      <c r="M92" s="72"/>
       <c r="N92" s="72"/>
       <c r="O92" s="70"/>
       <c r="P92" s="70"/>
@@ -5417,34 +5403,34 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B93" s="66">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="C93" s="66">
-        <v>44606</v>
+        <v>44604</v>
       </c>
       <c r="D93" s="71">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E93" s="71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F93" s="71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G93" s="71">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H93" s="71">
         <v>2</v>
       </c>
       <c r="I93" s="70"/>
-      <c r="J93" s="72"/>
-      <c r="K93" s="72"/>
-      <c r="L93" s="72"/>
-      <c r="M93" s="72"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
       <c r="N93" s="72"/>
       <c r="O93" s="70"/>
       <c r="P93" s="70"/>
@@ -5455,28 +5441,28 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="71">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B94" s="66">
-        <v>44606</v>
+        <v>44604</v>
       </c>
       <c r="C94" s="66">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="D94" s="71">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E94" s="71">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F94" s="71">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G94" s="71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H94" s="71">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I94" s="70"/>
       <c r="J94" s="72"/>
@@ -5493,28 +5479,28 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="71">
+        <v>13</v>
+      </c>
+      <c r="B95" s="66">
+        <v>44605</v>
+      </c>
+      <c r="C95" s="66">
+        <v>44606</v>
+      </c>
+      <c r="D95" s="71">
         <v>15</v>
       </c>
-      <c r="B95" s="66">
-        <v>44607</v>
-      </c>
-      <c r="C95" s="66">
-        <v>44608</v>
-      </c>
-      <c r="D95" s="71">
-        <v>16</v>
-      </c>
       <c r="E95" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" s="71">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G95" s="71">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H95" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95" s="70"/>
       <c r="J95" s="72"/>
@@ -5531,28 +5517,28 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="71">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B96" s="66">
-        <v>44608</v>
+        <v>44606</v>
       </c>
       <c r="C96" s="66">
-        <v>44609</v>
+        <v>44607</v>
       </c>
       <c r="D96" s="71">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E96" s="71">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F96" s="71">
+        <v>9</v>
+      </c>
+      <c r="G96" s="71">
         <v>2</v>
       </c>
-      <c r="G96" s="71">
-        <v>12</v>
-      </c>
       <c r="H96" s="71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I96" s="70"/>
       <c r="J96" s="72"/>
@@ -5569,35 +5555,35 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="71">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B97" s="66">
-        <v>44609</v>
+        <v>44607</v>
       </c>
       <c r="C97" s="66">
-        <v>44610</v>
+        <v>44608</v>
       </c>
       <c r="D97" s="71">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E97" s="71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F97" s="71">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G97" s="71">
         <v>5</v>
       </c>
       <c r="H97" s="71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
-      <c r="K97" s="70"/>
-      <c r="L97" s="70"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="70"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="72"/>
       <c r="O97" s="70"/>
       <c r="P97" s="70"/>
       <c r="Q97" s="70"/>
@@ -5607,35 +5593,35 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B98" s="66">
-        <v>44610</v>
+        <v>44608</v>
       </c>
       <c r="C98" s="66">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="D98" s="71">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E98" s="71">
         <v>10</v>
       </c>
       <c r="F98" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="71">
+        <v>12</v>
+      </c>
+      <c r="H98" s="71">
         <v>7</v>
       </c>
-      <c r="H98" s="71">
-        <v>3</v>
-      </c>
       <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="70"/>
+      <c r="J98" s="72"/>
+      <c r="K98" s="72"/>
+      <c r="L98" s="72"/>
+      <c r="M98" s="72"/>
+      <c r="N98" s="72"/>
       <c r="O98" s="70"/>
       <c r="P98" s="70"/>
       <c r="Q98" s="70"/>
@@ -5644,629 +5630,87 @@
       <c r="T98" s="70"/>
     </row>
     <row r="99" spans="1:20">
-      <c r="A99" s="16"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
+      <c r="A99" s="71">
+        <v>17</v>
+      </c>
+      <c r="B99" s="66">
+        <v>44609</v>
+      </c>
+      <c r="C99" s="66">
+        <v>44610</v>
+      </c>
+      <c r="D99" s="71">
+        <v>5</v>
+      </c>
+      <c r="E99" s="71">
+        <v>7</v>
+      </c>
+      <c r="F99" s="71">
+        <v>6</v>
+      </c>
+      <c r="G99" s="71">
+        <v>5</v>
+      </c>
+      <c r="H99" s="71">
+        <v>5</v>
+      </c>
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="70"/>
+      <c r="N99" s="70"/>
+      <c r="O99" s="70"/>
+      <c r="P99" s="70"/>
+      <c r="Q99" s="70"/>
+      <c r="R99" s="70"/>
+      <c r="S99" s="70"/>
+      <c r="T99" s="70"/>
     </row>
     <row r="100" spans="1:20">
-      <c r="A100" s="16"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16"/>
-    </row>
-    <row r="101" spans="1:20">
-      <c r="A101" s="16"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
-    </row>
-    <row r="102" spans="1:20">
-      <c r="A102" s="16"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="16"/>
-      <c r="R102" s="16"/>
-      <c r="S102" s="16"/>
-      <c r="T102" s="16"/>
-    </row>
-    <row r="103" spans="1:20">
-      <c r="A103" s="16"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
-      <c r="R103" s="16"/>
-      <c r="S103" s="16"/>
-      <c r="T103" s="16"/>
-    </row>
-    <row r="104" spans="1:20">
-      <c r="A104" s="16"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
-      <c r="S104" s="16"/>
-      <c r="T104" s="16"/>
-    </row>
-    <row r="105" spans="1:20">
-      <c r="A105" s="16"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="16"/>
-      <c r="R105" s="16"/>
-      <c r="S105" s="16"/>
-      <c r="T105" s="16"/>
-    </row>
-    <row r="106" spans="1:20">
-      <c r="A106" s="16"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
-      <c r="S106" s="16"/>
-      <c r="T106" s="16"/>
-    </row>
-    <row r="107" spans="1:20">
-      <c r="A107" s="16"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="16"/>
-      <c r="N107" s="16"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
-      <c r="R107" s="16"/>
-      <c r="S107" s="16"/>
-      <c r="T107" s="16"/>
-    </row>
-    <row r="108" spans="1:20">
-      <c r="A108" s="16"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="16"/>
-      <c r="N108" s="16"/>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16"/>
-      <c r="Q108" s="16"/>
-      <c r="R108" s="16"/>
-      <c r="S108" s="16"/>
-      <c r="T108" s="16"/>
-    </row>
-    <row r="109" spans="1:20">
-      <c r="A109" s="16"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="16"/>
-      <c r="O109" s="16"/>
-      <c r="P109" s="16"/>
-      <c r="Q109" s="16"/>
-      <c r="R109" s="16"/>
-      <c r="S109" s="16"/>
-      <c r="T109" s="16"/>
-    </row>
-    <row r="110" spans="1:20">
-      <c r="A110" s="16"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="16"/>
-      <c r="N110" s="16"/>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="16"/>
-      <c r="R110" s="16"/>
-      <c r="S110" s="16"/>
-      <c r="T110" s="16"/>
-    </row>
-    <row r="111" spans="1:20">
-      <c r="A111" s="16"/>
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="N111" s="16"/>
-      <c r="O111" s="16"/>
-      <c r="P111" s="16"/>
-      <c r="Q111" s="16"/>
-      <c r="R111" s="16"/>
-      <c r="S111" s="16"/>
-      <c r="T111" s="16"/>
-    </row>
-    <row r="112" spans="1:20">
-      <c r="A112" s="16"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="16"/>
-      <c r="N112" s="16"/>
-      <c r="O112" s="16"/>
-      <c r="P112" s="16"/>
-      <c r="Q112" s="16"/>
-      <c r="R112" s="16"/>
-      <c r="S112" s="16"/>
-      <c r="T112" s="16"/>
-    </row>
-    <row r="113" spans="1:20">
-      <c r="A113" s="16"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="16"/>
-      <c r="T113" s="16"/>
-    </row>
-    <row r="114" spans="1:20">
-      <c r="A114" s="16"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="16"/>
-      <c r="R114" s="16"/>
-      <c r="S114" s="16"/>
-      <c r="T114" s="16"/>
-    </row>
-    <row r="115" spans="1:20">
-      <c r="A115" s="16"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="16"/>
-      <c r="R115" s="16"/>
-      <c r="S115" s="16"/>
-      <c r="T115" s="16"/>
-    </row>
-    <row r="116" spans="1:20">
-      <c r="A116" s="16"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="16"/>
-      <c r="N116" s="16"/>
-      <c r="O116" s="16"/>
-      <c r="P116" s="16"/>
-      <c r="Q116" s="16"/>
-      <c r="R116" s="16"/>
-      <c r="S116" s="16"/>
-      <c r="T116" s="16"/>
-    </row>
-    <row r="117" spans="1:20">
-      <c r="A117" s="16"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="16"/>
-      <c r="L117" s="16"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16"/>
-      <c r="Q117" s="16"/>
-      <c r="R117" s="16"/>
-      <c r="S117" s="16"/>
-      <c r="T117" s="16"/>
-    </row>
-    <row r="118" spans="1:20">
-      <c r="A118" s="16"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="16"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
-      <c r="R118" s="16"/>
-      <c r="S118" s="16"/>
-      <c r="T118" s="16"/>
-    </row>
-    <row r="119" spans="1:20">
-      <c r="A119" s="16"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
-      <c r="N119" s="16"/>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="16"/>
-      <c r="R119" s="16"/>
-      <c r="S119" s="16"/>
-      <c r="T119" s="16"/>
-    </row>
-    <row r="120" spans="1:20">
-      <c r="A120" s="16"/>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="16"/>
-      <c r="R120" s="16"/>
-      <c r="S120" s="16"/>
-      <c r="T120" s="16"/>
-    </row>
-    <row r="121" spans="1:20">
-      <c r="A121" s="16"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="16"/>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16"/>
-      <c r="Q121" s="16"/>
-      <c r="R121" s="16"/>
-      <c r="S121" s="16"/>
-      <c r="T121" s="16"/>
-    </row>
-    <row r="122" spans="1:20">
-      <c r="A122" s="16"/>
-      <c r="B122" s="67"/>
-      <c r="C122" s="67"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="16"/>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
-      <c r="Q122" s="16"/>
-      <c r="R122" s="16"/>
-      <c r="S122" s="16"/>
-      <c r="T122" s="16"/>
-    </row>
-    <row r="123" spans="1:20">
-      <c r="A123" s="16"/>
-      <c r="B123" s="67"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="16"/>
-      <c r="N123" s="16"/>
-      <c r="O123" s="16"/>
-      <c r="P123" s="16"/>
-      <c r="Q123" s="16"/>
-      <c r="R123" s="16"/>
-      <c r="S123" s="16"/>
-      <c r="T123" s="16"/>
-    </row>
-    <row r="124" spans="1:20">
-      <c r="A124" s="16"/>
-      <c r="B124" s="67"/>
-      <c r="C124" s="67"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16"/>
-      <c r="Q124" s="16"/>
-      <c r="R124" s="16"/>
-      <c r="S124" s="16"/>
-      <c r="T124" s="16"/>
-    </row>
-    <row r="125" spans="1:20">
-      <c r="A125" s="16"/>
-      <c r="B125" s="67"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="16"/>
-      <c r="N125" s="16"/>
-      <c r="O125" s="16"/>
-      <c r="P125" s="16"/>
-      <c r="Q125" s="16"/>
-      <c r="R125" s="16"/>
-      <c r="S125" s="16"/>
-      <c r="T125" s="16"/>
-    </row>
-    <row r="126" spans="1:20">
-      <c r="A126" s="16"/>
-      <c r="B126" s="67"/>
-      <c r="C126" s="67"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="16"/>
-      <c r="O126" s="16"/>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="16"/>
-      <c r="S126" s="16"/>
-      <c r="T126" s="16"/>
-    </row>
-    <row r="127" spans="1:20">
-      <c r="A127" s="16"/>
-      <c r="B127" s="67"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="16"/>
-      <c r="L127" s="16"/>
-      <c r="M127" s="16"/>
-      <c r="N127" s="16"/>
-      <c r="O127" s="16"/>
-      <c r="P127" s="16"/>
-      <c r="Q127" s="16"/>
-      <c r="R127" s="16"/>
-      <c r="S127" s="16"/>
-      <c r="T127" s="16"/>
+      <c r="A100" s="71">
+        <v>18</v>
+      </c>
+      <c r="B100" s="66">
+        <v>44610</v>
+      </c>
+      <c r="C100" s="66">
+        <v>44611</v>
+      </c>
+      <c r="D100" s="71">
+        <v>13</v>
+      </c>
+      <c r="E100" s="71">
+        <v>10</v>
+      </c>
+      <c r="F100" s="71">
+        <v>1</v>
+      </c>
+      <c r="G100" s="71">
+        <v>7</v>
+      </c>
+      <c r="H100" s="71">
+        <v>3</v>
+      </c>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="70"/>
+      <c r="M100" s="70"/>
+      <c r="N100" s="70"/>
+      <c r="O100" s="70"/>
+      <c r="P100" s="70"/>
+      <c r="Q100" s="70"/>
+      <c r="R100" s="70"/>
+      <c r="S100" s="70"/>
+      <c r="T100" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J84:M84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
